--- a/XLSX/ItemTable.xlsx
+++ b/XLSX/ItemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D254A4-8B89-4706-AE0B-D9F2FB9A7F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E80C3F8-0825-4409-9472-2AD9F0C470A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
+    <workbookView xWindow="29580" yWindow="735" windowWidth="24375" windowHeight="14145" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="!ItemInfo" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>골드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetResource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,10 +141,35 @@
     <t>Value05</t>
   </si>
   <si>
-    <t>TArray&lt;int32&gt;</t>
-  </si>
-  <si>
     <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;EItemType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;EUseType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset&lt;UTexture2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;int32&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_02.T_icon_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,28 +579,30 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -592,58 +611,58 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -660,10 +679,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -688,34 +710,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,55 +753,55 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/ItemTable.xlsx
+++ b/XLSX/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E80C3F8-0825-4409-9472-2AD9F0C470A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9537ABFF-1006-44B6-AFD8-205D41E70208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="735" windowWidth="24375" windowHeight="14145" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="!ItemInfo" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
-  <si>
-    <t>골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>기본적인 자원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +51,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GetResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>;인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,19 +145,22 @@
     <t>Value05</t>
   </si>
   <si>
+    <t>TArray&lt;int32&gt;</t>
+  </si>
+  <si>
     <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum&lt;EItemType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum&lt;EUseType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
+    <t>강철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용의 비늘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,15 +168,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asset&lt;UTexture2D&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array&lt;int32&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Texture/Icon/T_icon_02.T_icon_02</t>
+    <t>Steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;EItemType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;EUseType&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,96 +599,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13F41BE-5657-4F8C-83B3-3CE193DCE9B7}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="12" width="12.625" customWidth="1"/>
+    <col min="5" max="6" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -673,19 +672,111 @@
         <v>101</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>301</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>401</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>501</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -710,98 +801,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/ItemTable.xlsx
+++ b/XLSX/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9537ABFF-1006-44B6-AFD8-205D41E70208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19795EF7-2A73-42DB-A20D-1FAA5159AF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="!ItemInfo" sheetId="1" r:id="rId1"/>
@@ -188,11 +188,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum&lt;EItemType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum&lt;EUseType&gt;</t>
+    <t>enum&lt;EItemType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;EUseType&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/ItemTable.xlsx
+++ b/XLSX/ItemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19795EF7-2A73-42DB-A20D-1FAA5159AF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0374A38E-35B6-4146-A98A-EFBFC49A77AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="!ItemInfo" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
-  <si>
-    <t>기본적인 자원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>UseType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>용의 비늘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +186,28 @@
   <si>
     <t>enum&lt;EUseType&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용의비늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset&lt;UTexture2D&gt;</t>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Texture/Icon/T_icon_01.T_icon_01</t>
   </si>
 </sst>
 </file>
@@ -272,18 +286,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13F41BE-5657-4F8C-83B3-3CE193DCE9B7}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,56 +632,58 @@
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.5" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -669,19 +691,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -692,19 +717,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -715,19 +743,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -738,19 +769,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -761,21 +795,50 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>401</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>501</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
     </row>
@@ -790,7 +853,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,99 +863,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/ItemTable.xlsx
+++ b/XLSX/ItemTable.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0374A38E-35B6-4146-A98A-EFBFC49A77AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3E6794-78DD-4243-AE1F-2A1D68114F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
+    <workbookView xWindow="29655" yWindow="4335" windowWidth="21600" windowHeight="12645" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="!ItemInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="!Item" sheetId="1" r:id="rId1"/>
     <sheet name="ItemInfoDesc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -106,9 +106,6 @@
     <t>int32</t>
   </si>
   <si>
-    <t>FString</t>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum&lt;EItemType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum&lt;EUseType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UsePoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +193,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asset&lt;UTexture2D&gt;</t>
-  </si>
-  <si>
     <t>/Game/Asset/UI/Texture/Icon/T_icon_01.T_icon_01</t>
+  </si>
+  <si>
+    <t>Enum&lt;EItemType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;EUseType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset&lt;UTexture2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -622,7 +624,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,13 +640,13 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
@@ -656,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -670,20 +672,20 @@
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -694,10 +696,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -706,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -720,10 +722,10 @@
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -732,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -746,10 +748,10 @@
         <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -758,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -772,10 +774,10 @@
         <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -784,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -798,10 +800,10 @@
         <v>401</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -810,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -824,10 +826,10 @@
         <v>501</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -836,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -864,7 +866,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -872,7 +874,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -880,7 +882,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -912,7 +914,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -920,7 +922,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -928,7 +930,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -936,7 +938,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -944,7 +946,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -952,7 +954,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>

--- a/XLSX/ItemTable.xlsx
+++ b/XLSX/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3E6794-78DD-4243-AE1F-2A1D68114F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595A260A-F879-443A-8397-9F19C5D94E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="4335" windowWidth="21600" windowHeight="12645" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="!Item" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>UseType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13F41BE-5657-4F8C-83B3-3CE193DCE9B7}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,9 +636,10 @@
     <col min="5" max="6" width="17.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.5" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -663,8 +664,11 @@
       <c r="H1" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -687,8 +691,11 @@
       <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -713,8 +720,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -739,8 +749,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -765,8 +778,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -791,8 +807,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -817,8 +836,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -842,6 +864,9 @@
       </c>
       <c r="H8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
